--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.040621.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.040621.xlsx_with_dialog_acts.xlsx
@@ -775,12 +775,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1649,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1915,12 +1915,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1953,12 +1953,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2793,12 +2793,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3743,12 +3743,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3895,12 +3895,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4009,12 +4009,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4085,12 +4085,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4123,12 +4123,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4275,12 +4275,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4731,12 +4731,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5225,12 +5225,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6525,12 +6525,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6601,12 +6601,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6715,12 +6715,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6753,12 +6753,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6905,12 +6905,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7247,12 +7247,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7437,12 +7437,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7627,12 +7627,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7665,12 +7665,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7893,12 +7893,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8311,12 +8311,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8349,12 +8349,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9033,12 +9033,12 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9413,12 +9413,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9793,12 +9793,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9983,12 +9983,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10021,12 +10021,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10439,12 +10439,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10515,12 +10515,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10553,12 +10553,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10705,12 +10705,12 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10857,12 +10857,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11427,12 +11427,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11731,12 +11731,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11883,12 +11883,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11921,12 +11921,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11997,12 +11997,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12225,12 +12225,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12453,12 +12453,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12529,12 +12529,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12567,12 +12567,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12609,12 +12609,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12647,12 +12647,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12951,12 +12951,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12989,12 +12989,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13635,12 +13635,12 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13673,12 +13673,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13901,12 +13901,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13981,12 +13981,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14019,12 +14019,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14361,12 +14361,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15509,12 +15509,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15623,12 +15623,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16155,12 +16155,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16231,12 +16231,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16425,12 +16425,12 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16463,12 +16463,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17163,12 +17163,12 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17623,12 +17623,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18041,12 +18041,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18315,12 +18315,12 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18391,12 +18391,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18543,12 +18543,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
